--- a/data/trdrec_from_trdclient/data_patch.xlsx
+++ b/data/trdrec_from_trdclient/data_patch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\trdrec_from_trdclient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\trdrec_from_trdclient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CF42BC-C464-424E-B24D-8ABFDED117B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD2E191-E598-44DE-B4A8-CA4592432424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="3960" windowWidth="13860" windowHeight="20955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="15135" windowWidth="13860" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -28,42 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
-    <t>acctid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ttasset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ttliability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>af</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secmv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>704mhuat_666810010091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>806mhuat_666800006472</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2419033778</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2_m_sw_9790</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +97,41 @@
   </si>
   <si>
     <t>PosCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctIDByMXZ</t>
+  </si>
+  <si>
+    <t>NetAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalLiability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvailableFund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecurityMarketValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928_m_zx_6258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapitalDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200605</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,86 +458,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>13278795</v>
+      </c>
+      <c r="D2">
+        <v>19009900</v>
+      </c>
+      <c r="E2">
+        <v>5731104</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>48839.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>34324615</v>
-      </c>
-      <c r="C3">
-        <v>65971598</v>
-      </c>
-      <c r="D3">
-        <v>31646983</v>
-      </c>
-      <c r="E3">
-        <v>4337732</v>
-      </c>
-      <c r="F3">
-        <v>61633866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>15703937</v>
-      </c>
-      <c r="C4">
-        <v>15703937</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>929024</v>
-      </c>
-      <c r="F4">
-        <v>14774912</v>
+      <c r="G2">
+        <v>5702818</v>
       </c>
     </row>
   </sheetData>
@@ -551,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -569,42 +548,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -613,21 +592,21 @@
         <v>3800000</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -636,21 +615,21 @@
         <v>5260000</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -659,21 +638,21 @@
         <v>4862300</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -682,41 +661,41 @@
         <v>17150000</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -725,7 +704,7 @@
         <v>5432800</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>30853356.800000001</v>
